--- a/Brake Chamber To-do list.xlsx
+++ b/Brake Chamber To-do list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,22 +47,76 @@
     <t>Deadline</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Implementer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code </t>
+  </si>
+  <si>
+    <t>Teensy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Upload Teensy working code </t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>This code should be working as of Feb 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaushik </t>
+  </si>
+  <si>
     <t>Write description for Teesny code</t>
   </si>
   <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Reorganizing the working code and writing description</t>
+  </si>
+  <si>
     <t xml:space="preserve">Teensy Code Flow chart  </t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaushik </t>
-  </si>
-  <si>
-    <t>Status</t>
+    <t>Working on the flow chart</t>
+  </si>
+  <si>
+    <t>Check Stop and End stop conditions</t>
+  </si>
+  <si>
+    <t>Remove Unused Functions</t>
+  </si>
+  <si>
+    <t>Code Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raspberry pi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display motion rate increase </t>
+  </si>
+  <si>
+    <t>Data collection Cloud upload</t>
+  </si>
+  <si>
+    <t>Pressure increase problem</t>
+  </si>
+  <si>
+    <t>Change pressure bar GUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Auto Update </t>
+  </si>
+  <si>
+    <t>Hardware/Electronics</t>
   </si>
   <si>
     <t>Solve Motor controller Serial problem (Jitter)</t>
@@ -77,76 +131,22 @@
     <t>3D print plastic piece for optical enstop</t>
   </si>
   <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Will update the 3D files and setting for the 3D print</t>
+  </si>
+  <si>
     <t>Check with different Brake Chambers</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Implementer</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>Docmentations</t>
+  </si>
+  <si>
+    <t>Pressure safety and Input power safety</t>
   </si>
   <si>
     <t>Upload Documentations and User Manuals</t>
-  </si>
-  <si>
-    <t>This code should be working as of Feb 2023</t>
-  </si>
-  <si>
-    <t>Reorganizing the working code and writing description</t>
-  </si>
-  <si>
-    <t>Docmentations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code </t>
-  </si>
-  <si>
-    <t>Teensy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raspberry pi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display motion rate increase </t>
-  </si>
-  <si>
-    <t>Hardware/Electronics</t>
-  </si>
-  <si>
-    <t>Check Stop and End stop conditions</t>
-  </si>
-  <si>
-    <t>Data collection Cloud upload</t>
-  </si>
-  <si>
-    <t>Pressure increase problem</t>
-  </si>
-  <si>
-    <t>Change pressure bar GUI</t>
-  </si>
-  <si>
-    <t>Remove Unused Functions</t>
-  </si>
-  <si>
-    <t>Pressure safety and Input power safety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Auto Update </t>
-  </si>
-  <si>
-    <t>Code Review</t>
-  </si>
-  <si>
-    <t>Working on the flow chart</t>
-  </si>
-  <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>Will update the 3D files and setting for the 3D print</t>
   </si>
   <si>
     <t>BOM and PCB design files</t>
@@ -156,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,11 +193,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +517,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="44.140625" customWidth="1"/>
@@ -528,7 +527,7 @@
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -539,273 +538,273 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>44992</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>44992</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>44992</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>44992</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>44993</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>44993</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
         <v>44994</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
         <v>44994</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
         <v>44994</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>44994</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <v>44994</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1">
         <v>44994</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1">
         <v>44996</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1">
         <v>44996</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>15</v>
       </c>
